--- a/Code/Results/Cases/Case_5_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_78/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009728056559583</v>
+        <v>1.058134008642892</v>
       </c>
       <c r="D2">
-        <v>1.031651309645933</v>
+        <v>1.06245570516235</v>
       </c>
       <c r="E2">
-        <v>1.012388350949162</v>
+        <v>1.053963137347903</v>
       </c>
       <c r="F2">
-        <v>1.035819859174087</v>
+        <v>1.07120195294803</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053921547737862</v>
+        <v>1.047987611823276</v>
       </c>
       <c r="J2">
-        <v>1.031621645887246</v>
+        <v>1.063126810246374</v>
       </c>
       <c r="K2">
-        <v>1.042686622814389</v>
+        <v>1.065177004793279</v>
       </c>
       <c r="L2">
-        <v>1.023677752707695</v>
+        <v>1.056707657155978</v>
       </c>
       <c r="M2">
-        <v>1.046801741349425</v>
+        <v>1.073899755022631</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018974137114887</v>
+        <v>1.059862937996661</v>
       </c>
       <c r="D3">
-        <v>1.039018107072136</v>
+        <v>1.063832423060787</v>
       </c>
       <c r="E3">
-        <v>1.020417931034899</v>
+        <v>1.055481907089025</v>
       </c>
       <c r="F3">
-        <v>1.04376030511044</v>
+        <v>1.072715604502015</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057369300032615</v>
+        <v>1.048502448399858</v>
       </c>
       <c r="J3">
-        <v>1.038960581021365</v>
+        <v>1.064504742034891</v>
       </c>
       <c r="K3">
-        <v>1.049174946395993</v>
+        <v>1.066367129738078</v>
       </c>
       <c r="L3">
-        <v>1.030796059678708</v>
+        <v>1.058037771461454</v>
       </c>
       <c r="M3">
-        <v>1.053862284312471</v>
+        <v>1.075228193111517</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024739179133853</v>
+        <v>1.060978667832776</v>
       </c>
       <c r="D4">
-        <v>1.043614525284027</v>
+        <v>1.064720581980623</v>
       </c>
       <c r="E4">
-        <v>1.025424841021329</v>
+        <v>1.056461518941101</v>
       </c>
       <c r="F4">
-        <v>1.048718336115482</v>
+        <v>1.073692580818814</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059503737642197</v>
+        <v>1.048832764465003</v>
       </c>
       <c r="J4">
-        <v>1.043530547633804</v>
+        <v>1.065393040585174</v>
       </c>
       <c r="K4">
-        <v>1.05321358501192</v>
+        <v>1.067134021105519</v>
       </c>
       <c r="L4">
-        <v>1.03522579705388</v>
+        <v>1.058894816529603</v>
       </c>
       <c r="M4">
-        <v>1.058262288484403</v>
+        <v>1.076084818791368</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027114236986111</v>
+        <v>1.061447016811283</v>
       </c>
       <c r="D5">
-        <v>1.045508739529365</v>
+        <v>1.065093335774026</v>
       </c>
       <c r="E5">
-        <v>1.027487560272902</v>
+        <v>1.056872610763556</v>
       </c>
       <c r="F5">
-        <v>1.050762461777769</v>
+        <v>1.074102725050797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060379328564048</v>
+        <v>1.048970959877549</v>
       </c>
       <c r="J5">
-        <v>1.045411758875382</v>
+        <v>1.065765699724993</v>
       </c>
       <c r="K5">
-        <v>1.054875643207238</v>
+        <v>1.067455666623571</v>
       </c>
       <c r="L5">
-        <v>1.037048602362445</v>
+        <v>1.05925426208524</v>
       </c>
       <c r="M5">
-        <v>1.060074299852273</v>
+        <v>1.076444245917837</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027510268592736</v>
+        <v>1.061525613827976</v>
       </c>
       <c r="D6">
-        <v>1.045824623586013</v>
+        <v>1.065155886251876</v>
       </c>
       <c r="E6">
-        <v>1.027831507653817</v>
+        <v>1.056941592053395</v>
       </c>
       <c r="F6">
-        <v>1.051103397796615</v>
+        <v>1.074171556597445</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0605251073215</v>
+        <v>1.048994124384609</v>
       </c>
       <c r="J6">
-        <v>1.045725352852606</v>
+        <v>1.065828225353813</v>
       </c>
       <c r="K6">
-        <v>1.0551526782668</v>
+        <v>1.067509628307764</v>
       </c>
       <c r="L6">
-        <v>1.037352420161967</v>
+        <v>1.059314564724135</v>
       </c>
       <c r="M6">
-        <v>1.060376401985334</v>
+        <v>1.07650455468072</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024771101162462</v>
+        <v>1.060984928679716</v>
       </c>
       <c r="D7">
-        <v>1.043639982327919</v>
+        <v>1.064725565188528</v>
       </c>
       <c r="E7">
-        <v>1.025452565199972</v>
+        <v>1.056467014847938</v>
       </c>
       <c r="F7">
-        <v>1.048745804349793</v>
+        <v>1.073698063435706</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059515520993652</v>
+        <v>1.048834613662381</v>
       </c>
       <c r="J7">
-        <v>1.043555838164248</v>
+        <v>1.065398023129205</v>
       </c>
       <c r="K7">
-        <v>1.053235931071315</v>
+        <v>1.067138321903632</v>
       </c>
       <c r="L7">
-        <v>1.03525030508803</v>
+        <v>1.058899622806071</v>
       </c>
       <c r="M7">
-        <v>1.058286645739998</v>
+        <v>1.076089624203061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012900185361892</v>
+        <v>1.058718939341728</v>
       </c>
       <c r="D8">
-        <v>1.034177935693507</v>
+        <v>1.062921532772319</v>
       </c>
       <c r="E8">
-        <v>1.015142984041834</v>
+        <v>1.054477069542585</v>
       </c>
       <c r="F8">
-        <v>1.038542451001446</v>
+        <v>1.071714014488179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055107584721864</v>
+        <v>1.048162189738352</v>
       </c>
       <c r="J8">
-        <v>1.034140685618965</v>
+        <v>1.06359318258187</v>
       </c>
       <c r="K8">
-        <v>1.044914022126743</v>
+        <v>1.065579881671759</v>
       </c>
       <c r="L8">
-        <v>1.026121667609257</v>
+        <v>1.05715793412514</v>
       </c>
       <c r="M8">
-        <v>1.049224472586188</v>
+        <v>1.074349326934912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901298103473734</v>
+        <v>1.054702296365187</v>
       </c>
       <c r="D9">
-        <v>1.016062149535331</v>
+        <v>1.059721659471584</v>
       </c>
       <c r="E9">
-        <v>0.995375812250659</v>
+        <v>1.050945935208678</v>
       </c>
       <c r="F9">
-        <v>1.019037701714294</v>
+        <v>1.068198517476199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046530606434982</v>
+        <v>1.046955483554464</v>
       </c>
       <c r="J9">
-        <v>1.016035990472963</v>
+        <v>1.060386882351599</v>
       </c>
       <c r="K9">
-        <v>1.028899895969913</v>
+        <v>1.062808747583994</v>
       </c>
       <c r="L9">
-        <v>1.008544361868943</v>
+        <v>1.054060516049459</v>
       </c>
       <c r="M9">
-        <v>1.031829276163756</v>
+        <v>1.071259517233206</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9734001722719348</v>
+        <v>1.05200765754475</v>
       </c>
       <c r="D10">
-        <v>1.002789139808593</v>
+        <v>1.057573641600843</v>
       </c>
       <c r="E10">
-        <v>0.9808672227052505</v>
+        <v>1.048574471348003</v>
       </c>
       <c r="F10">
-        <v>1.00476778208676</v>
+        <v>1.065841100597635</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040152092055699</v>
+        <v>1.04613602571547</v>
       </c>
       <c r="J10">
-        <v>1.002710399720757</v>
+        <v>1.058231137369114</v>
       </c>
       <c r="K10">
-        <v>1.017108217420863</v>
+        <v>1.060943890426831</v>
       </c>
       <c r="L10">
-        <v>0.9955907370331062</v>
+        <v>1.051975736321836</v>
       </c>
       <c r="M10">
-        <v>1.019051483057992</v>
+        <v>1.069183362327299</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9657032222329522</v>
+        <v>1.050836632389136</v>
       </c>
       <c r="D11">
-        <v>0.996694987845067</v>
+        <v>1.056639867987463</v>
       </c>
       <c r="E11">
-        <v>0.9741980825168191</v>
+        <v>1.047543293001744</v>
       </c>
       <c r="F11">
-        <v>0.9982208518846798</v>
+        <v>1.064816884663703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037200985764336</v>
+        <v>1.045777563910667</v>
       </c>
       <c r="J11">
-        <v>0.9965758218884549</v>
+        <v>1.057293183857205</v>
       </c>
       <c r="K11">
-        <v>1.011679502164734</v>
+        <v>1.060132105555583</v>
       </c>
       <c r="L11">
-        <v>0.9896235598485262</v>
+        <v>1.051068124609694</v>
       </c>
       <c r="M11">
-        <v>1.013176398509069</v>
+        <v>1.068280346769588</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9627672185609211</v>
+        <v>1.050401007657313</v>
       </c>
       <c r="D12">
-        <v>0.9943726242813393</v>
+        <v>1.056292458381118</v>
       </c>
       <c r="E12">
-        <v>0.9716552900297217</v>
+        <v>1.047159602349565</v>
       </c>
       <c r="F12">
-        <v>0.9957266871398486</v>
+        <v>1.064435914150283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036072993406643</v>
+        <v>1.045643863340229</v>
       </c>
       <c r="J12">
-        <v>0.9942354201611258</v>
+        <v>1.056944094849259</v>
       </c>
       <c r="K12">
-        <v>1.009608435930061</v>
+        <v>1.059829915389218</v>
       </c>
       <c r="L12">
-        <v>0.9873464511967894</v>
+        <v>1.050730247642171</v>
       </c>
       <c r="M12">
-        <v>1.010936217585901</v>
+        <v>1.067944308074644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9634006492776281</v>
+        <v>1.050494480528784</v>
       </c>
       <c r="D13">
-        <v>0.9948735564285349</v>
+        <v>1.056367004684392</v>
       </c>
       <c r="E13">
-        <v>0.9722038304442533</v>
+        <v>1.047241935656909</v>
       </c>
       <c r="F13">
-        <v>0.9962646431101029</v>
+        <v>1.064517657886601</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036316453142169</v>
+        <v>1.045672567643766</v>
       </c>
       <c r="J13">
-        <v>0.9947403651069561</v>
+        <v>1.057019007152127</v>
       </c>
       <c r="K13">
-        <v>1.010055267964737</v>
+        <v>1.059894766147056</v>
       </c>
       <c r="L13">
-        <v>0.9878377662425354</v>
+        <v>1.050802757563159</v>
       </c>
       <c r="M13">
-        <v>1.011419482505113</v>
+        <v>1.068016417723265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9654621603397379</v>
+        <v>1.050800636959163</v>
       </c>
       <c r="D14">
-        <v>0.9965042612101752</v>
+        <v>1.056611162595421</v>
       </c>
       <c r="E14">
-        <v>0.9739892804411333</v>
+        <v>1.047511590675233</v>
       </c>
       <c r="F14">
-        <v>0.9980160008302117</v>
+        <v>1.064785404441023</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037108416634853</v>
+        <v>1.045766523475363</v>
       </c>
       <c r="J14">
-        <v>0.9963836682814657</v>
+        <v>1.057264342240736</v>
       </c>
       <c r="K14">
-        <v>1.011509460378733</v>
+        <v>1.060107139901145</v>
       </c>
       <c r="L14">
-        <v>0.9894366143103808</v>
+        <v>1.051040210973336</v>
       </c>
       <c r="M14">
-        <v>1.01299244783261</v>
+        <v>1.068252582402512</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9667218227870124</v>
+        <v>1.05098918284115</v>
       </c>
       <c r="D15">
-        <v>0.9975009917520562</v>
+        <v>1.056761521133536</v>
       </c>
       <c r="E15">
-        <v>0.975080418428845</v>
+        <v>1.047677645410293</v>
       </c>
       <c r="F15">
-        <v>0.999086575236999</v>
+        <v>1.06495030111684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037592042460943</v>
+        <v>1.045824339441111</v>
       </c>
       <c r="J15">
-        <v>0.9973877482632226</v>
+        <v>1.057415409229303</v>
       </c>
       <c r="K15">
-        <v>1.012397999431362</v>
+        <v>1.06023790292334</v>
       </c>
       <c r="L15">
-        <v>0.9904134569047655</v>
+        <v>1.051186414075332</v>
       </c>
       <c r="M15">
-        <v>1.013953714461044</v>
+        <v>1.068398008889645</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9739007234166649</v>
+        <v>1.052085283956068</v>
       </c>
       <c r="D16">
-        <v>1.003185743680318</v>
+        <v>1.057635534659153</v>
       </c>
       <c r="E16">
-        <v>0.9813010757680183</v>
+        <v>1.048642814883365</v>
       </c>
       <c r="F16">
-        <v>1.005193954231952</v>
+        <v>1.065909000752556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040343685571106</v>
+        <v>1.046159738599958</v>
       </c>
       <c r="J16">
-        <v>1.003109284686058</v>
+        <v>1.058293290134111</v>
       </c>
       <c r="K16">
-        <v>1.017461206400516</v>
+        <v>1.060997674462921</v>
       </c>
       <c r="L16">
-        <v>0.9959786586848258</v>
+        <v>1.052035867241295</v>
       </c>
       <c r="M16">
-        <v>1.019433655174616</v>
+        <v>1.069243206504865</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9782767772969302</v>
+        <v>1.052771694054881</v>
       </c>
       <c r="D17">
-        <v>1.006654475122331</v>
+        <v>1.058182788839464</v>
       </c>
       <c r="E17">
-        <v>0.9850947150375086</v>
+        <v>1.049247072507124</v>
       </c>
       <c r="F17">
-        <v>1.008921845528034</v>
+        <v>1.066509436867206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042016861772782</v>
+        <v>1.046369149006053</v>
       </c>
       <c r="J17">
-        <v>1.006596124853117</v>
+        <v>1.058842745875995</v>
       </c>
       <c r="K17">
-        <v>1.020546824701874</v>
+        <v>1.06147310177123</v>
       </c>
       <c r="L17">
-        <v>0.9993692346071992</v>
+        <v>1.052567387383255</v>
       </c>
       <c r="M17">
-        <v>1.02277523017256</v>
+        <v>1.069772289052647</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9807862429825879</v>
+        <v>1.053171658699875</v>
       </c>
       <c r="D18">
-        <v>1.008644766536765</v>
+        <v>1.058501639983027</v>
       </c>
       <c r="E18">
-        <v>0.9872707277158106</v>
+        <v>1.049599110156376</v>
       </c>
       <c r="F18">
-        <v>1.011061297900669</v>
+        <v>1.066859330279041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042974804881603</v>
+        <v>1.046490944632909</v>
       </c>
       <c r="J18">
-        <v>1.00859530362581</v>
+        <v>1.059162800785321</v>
       </c>
       <c r="K18">
-        <v>1.022315930008984</v>
+        <v>1.061749997474784</v>
       </c>
       <c r="L18">
-        <v>1.001312863067815</v>
+        <v>1.052876943468189</v>
       </c>
       <c r="M18">
-        <v>1.024691791936598</v>
+        <v>1.070080506347617</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9816348561070167</v>
+        <v>1.053307967872827</v>
       </c>
       <c r="D19">
-        <v>1.009317995330926</v>
+        <v>1.058610300520121</v>
       </c>
       <c r="E19">
-        <v>0.9880066626524456</v>
+        <v>1.049719075893094</v>
       </c>
       <c r="F19">
-        <v>1.011785059350371</v>
+        <v>1.066978579213264</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043298480291031</v>
+        <v>1.046532414632706</v>
       </c>
       <c r="J19">
-        <v>1.009271288654211</v>
+        <v>1.059271858188926</v>
       </c>
       <c r="K19">
-        <v>1.022914112077254</v>
+        <v>1.061844342083202</v>
       </c>
       <c r="L19">
-        <v>1.001970004103372</v>
+        <v>1.052982414723737</v>
       </c>
       <c r="M19">
-        <v>1.025339952030965</v>
+        <v>1.070185535142713</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9778117766162264</v>
+        <v>1.052698090953403</v>
       </c>
       <c r="D20">
-        <v>1.006285766312661</v>
+        <v>1.058124110250784</v>
       </c>
       <c r="E20">
-        <v>0.9846915445252373</v>
+        <v>1.049182284487371</v>
       </c>
       <c r="F20">
-        <v>1.008525541432607</v>
+        <v>1.066445050076733</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041839229415317</v>
+        <v>1.046346717491067</v>
       </c>
       <c r="J20">
-        <v>1.006225648844712</v>
+        <v>1.058783839404237</v>
       </c>
       <c r="K20">
-        <v>1.020218981308077</v>
+        <v>1.061422135730704</v>
       </c>
       <c r="L20">
-        <v>0.9990090238249468</v>
+        <v>1.052510409090182</v>
       </c>
       <c r="M20">
-        <v>1.022420117915984</v>
+        <v>1.069715563691799</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9648573033536663</v>
+        <v>1.050710499720431</v>
       </c>
       <c r="D21">
-        <v>0.9960257397496057</v>
+        <v>1.056539279868396</v>
       </c>
       <c r="E21">
-        <v>0.9734653871726243</v>
+        <v>1.047432202484726</v>
       </c>
       <c r="F21">
-        <v>0.9975020540110323</v>
+        <v>1.064706574532444</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036876112035539</v>
+        <v>1.045738871111203</v>
       </c>
       <c r="J21">
-        <v>0.9959015236951954</v>
+        <v>1.057192116376704</v>
       </c>
       <c r="K21">
-        <v>1.011082798927154</v>
+        <v>1.060044619366204</v>
       </c>
       <c r="L21">
-        <v>0.9889675284585211</v>
+        <v>1.050970307676625</v>
       </c>
       <c r="M21">
-        <v>1.012530905785743</v>
+        <v>1.0681830549741</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.956260934617754</v>
+        <v>1.049457029924785</v>
       </c>
       <c r="D22">
-        <v>0.9892308362635617</v>
+        <v>1.055539561229509</v>
       </c>
       <c r="E22">
-        <v>0.9660228414196462</v>
+        <v>1.046328000218803</v>
       </c>
       <c r="F22">
-        <v>0.9902059050361158</v>
+        <v>1.063610445817474</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033569314003278</v>
+        <v>1.045353497663065</v>
       </c>
       <c r="J22">
-        <v>0.9890485884179241</v>
+        <v>1.056187329673079</v>
       </c>
       <c r="K22">
-        <v>1.005018694312457</v>
+        <v>1.05917471186443</v>
       </c>
       <c r="L22">
-        <v>0.9822988396942103</v>
+        <v>1.049997640403432</v>
       </c>
       <c r="M22">
-        <v>1.005973914141364</v>
+        <v>1.06721592058968</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9608642898675835</v>
+        <v>1.050121883685965</v>
       </c>
       <c r="D23">
-        <v>0.9928681057588996</v>
+        <v>1.056069845768154</v>
       </c>
       <c r="E23">
-        <v>0.9700075772636421</v>
+        <v>1.046913729730893</v>
       </c>
       <c r="F23">
-        <v>0.9941110791045117</v>
+        <v>1.064191821222833</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035341280785734</v>
+        <v>1.045558096534513</v>
       </c>
       <c r="J23">
-        <v>0.9927184474110248</v>
+        <v>1.056720371004387</v>
       </c>
       <c r="K23">
-        <v>1.008266061459145</v>
+        <v>1.05963623154626</v>
       </c>
       <c r="L23">
-        <v>0.985870342546863</v>
+        <v>1.050513686628481</v>
       </c>
       <c r="M23">
-        <v>1.009484566468108</v>
+        <v>1.067728961232715</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780220226675489</v>
+        <v>1.052731350283308</v>
       </c>
       <c r="D24">
-        <v>1.006452471323838</v>
+        <v>1.058150625669728</v>
       </c>
       <c r="E24">
-        <v>0.9848738329521673</v>
+        <v>1.04921156068868</v>
       </c>
       <c r="F24">
-        <v>1.008704721721211</v>
+        <v>1.066474144717927</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041919549181862</v>
+        <v>1.046356854408303</v>
       </c>
       <c r="J24">
-        <v>1.006393157526287</v>
+        <v>1.058810458041982</v>
       </c>
       <c r="K24">
-        <v>1.020367213997357</v>
+        <v>1.061445166366619</v>
       </c>
       <c r="L24">
-        <v>0.9991718922534236</v>
+        <v>1.052536156582181</v>
       </c>
       <c r="M24">
-        <v>1.022580677883222</v>
+        <v>1.069741196638187</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9962644360654572</v>
+        <v>1.055743598831268</v>
       </c>
       <c r="D25">
-        <v>1.020937625699262</v>
+        <v>1.060551455367222</v>
       </c>
       <c r="E25">
-        <v>1.000699584077175</v>
+        <v>1.051861818507638</v>
       </c>
       <c r="F25">
-        <v>1.024283495160333</v>
+        <v>1.069109726669906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048854790361144</v>
+        <v>1.047270063626385</v>
       </c>
       <c r="J25">
-        <v>1.020918174163424</v>
+        <v>1.061218940711613</v>
       </c>
       <c r="K25">
-        <v>1.033219379712745</v>
+        <v>1.063528176960803</v>
       </c>
       <c r="L25">
-        <v>1.013287049602706</v>
+        <v>1.054864711110115</v>
       </c>
       <c r="M25">
-        <v>1.036516183959028</v>
+        <v>1.072061125483577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_78/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058134008642892</v>
+        <v>1.009728056559584</v>
       </c>
       <c r="D2">
-        <v>1.06245570516235</v>
+        <v>1.031651309645934</v>
       </c>
       <c r="E2">
-        <v>1.053963137347903</v>
+        <v>1.012388350949163</v>
       </c>
       <c r="F2">
-        <v>1.07120195294803</v>
+        <v>1.035819859174088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047987611823276</v>
+        <v>1.053921547737863</v>
       </c>
       <c r="J2">
-        <v>1.063126810246374</v>
+        <v>1.031621645887247</v>
       </c>
       <c r="K2">
-        <v>1.065177004793279</v>
+        <v>1.04268662281439</v>
       </c>
       <c r="L2">
-        <v>1.056707657155978</v>
+        <v>1.023677752707696</v>
       </c>
       <c r="M2">
-        <v>1.073899755022631</v>
+        <v>1.046801741349426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059862937996661</v>
+        <v>1.018974137114886</v>
       </c>
       <c r="D3">
-        <v>1.063832423060787</v>
+        <v>1.039018107072136</v>
       </c>
       <c r="E3">
-        <v>1.055481907089025</v>
+        <v>1.020417931034898</v>
       </c>
       <c r="F3">
-        <v>1.072715604502015</v>
+        <v>1.043760305110439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048502448399858</v>
+        <v>1.057369300032615</v>
       </c>
       <c r="J3">
-        <v>1.064504742034891</v>
+        <v>1.038960581021364</v>
       </c>
       <c r="K3">
-        <v>1.066367129738078</v>
+        <v>1.049174946395993</v>
       </c>
       <c r="L3">
-        <v>1.058037771461454</v>
+        <v>1.030796059678707</v>
       </c>
       <c r="M3">
-        <v>1.075228193111517</v>
+        <v>1.05386228431247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060978667832776</v>
+        <v>1.024739179133852</v>
       </c>
       <c r="D4">
-        <v>1.064720581980623</v>
+        <v>1.043614525284026</v>
       </c>
       <c r="E4">
-        <v>1.056461518941101</v>
+        <v>1.025424841021327</v>
       </c>
       <c r="F4">
-        <v>1.073692580818814</v>
+        <v>1.048718336115481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048832764465003</v>
+        <v>1.059503737642197</v>
       </c>
       <c r="J4">
-        <v>1.065393040585174</v>
+        <v>1.043530547633803</v>
       </c>
       <c r="K4">
-        <v>1.067134021105519</v>
+        <v>1.053213585011919</v>
       </c>
       <c r="L4">
-        <v>1.058894816529603</v>
+        <v>1.035225797053878</v>
       </c>
       <c r="M4">
-        <v>1.076084818791368</v>
+        <v>1.058262288484402</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061447016811283</v>
+        <v>1.027114236986111</v>
       </c>
       <c r="D5">
-        <v>1.065093335774026</v>
+        <v>1.045508739529366</v>
       </c>
       <c r="E5">
-        <v>1.056872610763556</v>
+        <v>1.027487560272902</v>
       </c>
       <c r="F5">
-        <v>1.074102725050797</v>
+        <v>1.050762461777769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048970959877549</v>
+        <v>1.060379328564048</v>
       </c>
       <c r="J5">
-        <v>1.065765699724993</v>
+        <v>1.045411758875383</v>
       </c>
       <c r="K5">
-        <v>1.067455666623571</v>
+        <v>1.054875643207239</v>
       </c>
       <c r="L5">
-        <v>1.05925426208524</v>
+        <v>1.037048602362445</v>
       </c>
       <c r="M5">
-        <v>1.076444245917837</v>
+        <v>1.060074299852274</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061525613827976</v>
+        <v>1.027510268592734</v>
       </c>
       <c r="D6">
-        <v>1.065155886251876</v>
+        <v>1.045824623586011</v>
       </c>
       <c r="E6">
-        <v>1.056941592053395</v>
+        <v>1.027831507653815</v>
       </c>
       <c r="F6">
-        <v>1.074171556597445</v>
+        <v>1.051103397796613</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048994124384609</v>
+        <v>1.060525107321499</v>
       </c>
       <c r="J6">
-        <v>1.065828225353813</v>
+        <v>1.045725352852604</v>
       </c>
       <c r="K6">
-        <v>1.067509628307764</v>
+        <v>1.055152678266798</v>
       </c>
       <c r="L6">
-        <v>1.059314564724135</v>
+        <v>1.037352420161965</v>
       </c>
       <c r="M6">
-        <v>1.07650455468072</v>
+        <v>1.060376401985332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060984928679716</v>
+        <v>1.024771101162457</v>
       </c>
       <c r="D7">
-        <v>1.064725565188528</v>
+        <v>1.043639982327915</v>
       </c>
       <c r="E7">
-        <v>1.056467014847938</v>
+        <v>1.025452565199968</v>
       </c>
       <c r="F7">
-        <v>1.073698063435706</v>
+        <v>1.048745804349789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048834613662381</v>
+        <v>1.05951552099365</v>
       </c>
       <c r="J7">
-        <v>1.065398023129205</v>
+        <v>1.043555838164243</v>
       </c>
       <c r="K7">
-        <v>1.067138321903632</v>
+        <v>1.053235931071311</v>
       </c>
       <c r="L7">
-        <v>1.058899622806071</v>
+        <v>1.035250305088026</v>
       </c>
       <c r="M7">
-        <v>1.076089624203061</v>
+        <v>1.058286645739993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058718939341728</v>
+        <v>1.012900185361891</v>
       </c>
       <c r="D8">
-        <v>1.062921532772319</v>
+        <v>1.034177935693506</v>
       </c>
       <c r="E8">
-        <v>1.054477069542585</v>
+        <v>1.015142984041833</v>
       </c>
       <c r="F8">
-        <v>1.071714014488179</v>
+        <v>1.038542451001445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048162189738352</v>
+        <v>1.055107584721864</v>
       </c>
       <c r="J8">
-        <v>1.06359318258187</v>
+        <v>1.034140685618964</v>
       </c>
       <c r="K8">
-        <v>1.065579881671759</v>
+        <v>1.044914022126741</v>
       </c>
       <c r="L8">
-        <v>1.05715793412514</v>
+        <v>1.026121667609256</v>
       </c>
       <c r="M8">
-        <v>1.074349326934912</v>
+        <v>1.049224472586187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054702296365187</v>
+        <v>0.9901298103473698</v>
       </c>
       <c r="D9">
-        <v>1.059721659471584</v>
+        <v>1.016062149535328</v>
       </c>
       <c r="E9">
-        <v>1.050945935208678</v>
+        <v>0.9953758122506557</v>
       </c>
       <c r="F9">
-        <v>1.068198517476199</v>
+        <v>1.01903770171429</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046955483554464</v>
+        <v>1.04653060643498</v>
       </c>
       <c r="J9">
-        <v>1.060386882351599</v>
+        <v>1.01603599047296</v>
       </c>
       <c r="K9">
-        <v>1.062808747583994</v>
+        <v>1.02889989596991</v>
       </c>
       <c r="L9">
-        <v>1.054060516049459</v>
+        <v>1.00854436186894</v>
       </c>
       <c r="M9">
-        <v>1.071259517233206</v>
+        <v>1.031829276163752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05200765754475</v>
+        <v>0.9734001722719356</v>
       </c>
       <c r="D10">
-        <v>1.057573641600843</v>
+        <v>1.002789139808594</v>
       </c>
       <c r="E10">
-        <v>1.048574471348003</v>
+        <v>0.9808672227052512</v>
       </c>
       <c r="F10">
-        <v>1.065841100597635</v>
+        <v>1.004767782086761</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04613602571547</v>
+        <v>1.040152092055699</v>
       </c>
       <c r="J10">
-        <v>1.058231137369114</v>
+        <v>1.002710399720758</v>
       </c>
       <c r="K10">
-        <v>1.060943890426831</v>
+        <v>1.017108217420864</v>
       </c>
       <c r="L10">
-        <v>1.051975736321836</v>
+        <v>0.9955907370331071</v>
       </c>
       <c r="M10">
-        <v>1.069183362327299</v>
+        <v>1.019051483057993</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050836632389136</v>
+        <v>0.9657032222329511</v>
       </c>
       <c r="D11">
-        <v>1.056639867987463</v>
+        <v>0.996694987845066</v>
       </c>
       <c r="E11">
-        <v>1.047543293001744</v>
+        <v>0.9741980825168177</v>
       </c>
       <c r="F11">
-        <v>1.064816884663703</v>
+        <v>0.9982208518846792</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045777563910667</v>
+        <v>1.037200985764336</v>
       </c>
       <c r="J11">
-        <v>1.057293183857205</v>
+        <v>0.9965758218884541</v>
       </c>
       <c r="K11">
-        <v>1.060132105555583</v>
+        <v>1.011679502164734</v>
       </c>
       <c r="L11">
-        <v>1.051068124609694</v>
+        <v>0.9896235598485251</v>
       </c>
       <c r="M11">
-        <v>1.068280346769588</v>
+        <v>1.013176398509068</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050401007657313</v>
+        <v>0.9627672185609204</v>
       </c>
       <c r="D12">
-        <v>1.056292458381118</v>
+        <v>0.9943726242813389</v>
       </c>
       <c r="E12">
-        <v>1.047159602349565</v>
+        <v>0.9716552900297213</v>
       </c>
       <c r="F12">
-        <v>1.064435914150283</v>
+        <v>0.995726687139848</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045643863340229</v>
+        <v>1.036072993406643</v>
       </c>
       <c r="J12">
-        <v>1.056944094849259</v>
+        <v>0.9942354201611254</v>
       </c>
       <c r="K12">
-        <v>1.059829915389218</v>
+        <v>1.009608435930061</v>
       </c>
       <c r="L12">
-        <v>1.050730247642171</v>
+        <v>0.9873464511967889</v>
       </c>
       <c r="M12">
-        <v>1.067944308074644</v>
+        <v>1.010936217585901</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050494480528784</v>
+        <v>0.9634006492776291</v>
       </c>
       <c r="D13">
-        <v>1.056367004684392</v>
+        <v>0.9948735564285359</v>
       </c>
       <c r="E13">
-        <v>1.047241935656909</v>
+        <v>0.9722038304442538</v>
       </c>
       <c r="F13">
-        <v>1.064517657886601</v>
+        <v>0.996264643110104</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045672567643766</v>
+        <v>1.036316453142169</v>
       </c>
       <c r="J13">
-        <v>1.057019007152127</v>
+        <v>0.9947403651069568</v>
       </c>
       <c r="K13">
-        <v>1.059894766147056</v>
+        <v>1.010055267964738</v>
       </c>
       <c r="L13">
-        <v>1.050802757563159</v>
+        <v>0.9878377662425362</v>
       </c>
       <c r="M13">
-        <v>1.068016417723265</v>
+        <v>1.011419482505114</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050800636959163</v>
+        <v>0.965462160339737</v>
       </c>
       <c r="D14">
-        <v>1.056611162595421</v>
+        <v>0.9965042612101749</v>
       </c>
       <c r="E14">
-        <v>1.047511590675233</v>
+        <v>0.9739892804411328</v>
       </c>
       <c r="F14">
-        <v>1.064785404441023</v>
+        <v>0.9980160008302106</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045766523475363</v>
+        <v>1.037108416634853</v>
       </c>
       <c r="J14">
-        <v>1.057264342240736</v>
+        <v>0.9963836682814653</v>
       </c>
       <c r="K14">
-        <v>1.060107139901145</v>
+        <v>1.011509460378732</v>
       </c>
       <c r="L14">
-        <v>1.051040210973336</v>
+        <v>0.98943661431038</v>
       </c>
       <c r="M14">
-        <v>1.068252582402512</v>
+        <v>1.012992447832609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05098918284115</v>
+        <v>0.9667218227870112</v>
       </c>
       <c r="D15">
-        <v>1.056761521133536</v>
+        <v>0.997500991752055</v>
       </c>
       <c r="E15">
-        <v>1.047677645410293</v>
+        <v>0.9750804184288437</v>
       </c>
       <c r="F15">
-        <v>1.06495030111684</v>
+        <v>0.999086575236998</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045824339441111</v>
+        <v>1.037592042460943</v>
       </c>
       <c r="J15">
-        <v>1.057415409229303</v>
+        <v>0.9973877482632215</v>
       </c>
       <c r="K15">
-        <v>1.06023790292334</v>
+        <v>1.012397999431361</v>
       </c>
       <c r="L15">
-        <v>1.051186414075332</v>
+        <v>0.9904134569047642</v>
       </c>
       <c r="M15">
-        <v>1.068398008889645</v>
+        <v>1.013953714461043</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052085283956068</v>
+        <v>0.973900723416665</v>
       </c>
       <c r="D16">
-        <v>1.057635534659153</v>
+        <v>1.003185743680318</v>
       </c>
       <c r="E16">
-        <v>1.048642814883365</v>
+        <v>0.9813010757680179</v>
       </c>
       <c r="F16">
-        <v>1.065909000752556</v>
+        <v>1.005193954231952</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046159738599958</v>
+        <v>1.040343685571106</v>
       </c>
       <c r="J16">
-        <v>1.058293290134111</v>
+        <v>1.003109284686057</v>
       </c>
       <c r="K16">
-        <v>1.060997674462921</v>
+        <v>1.017461206400516</v>
       </c>
       <c r="L16">
-        <v>1.052035867241295</v>
+        <v>0.9959786586848254</v>
       </c>
       <c r="M16">
-        <v>1.069243206504865</v>
+        <v>1.019433655174616</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052771694054881</v>
+        <v>0.97827677729693</v>
       </c>
       <c r="D17">
-        <v>1.058182788839464</v>
+        <v>1.006654475122331</v>
       </c>
       <c r="E17">
-        <v>1.049247072507124</v>
+        <v>0.9850947150375081</v>
       </c>
       <c r="F17">
-        <v>1.066509436867206</v>
+        <v>1.008921845528033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046369149006053</v>
+        <v>1.042016861772782</v>
       </c>
       <c r="J17">
-        <v>1.058842745875995</v>
+        <v>1.006596124853117</v>
       </c>
       <c r="K17">
-        <v>1.06147310177123</v>
+        <v>1.020546824701873</v>
       </c>
       <c r="L17">
-        <v>1.052567387383255</v>
+        <v>0.9993692346071987</v>
       </c>
       <c r="M17">
-        <v>1.069772289052647</v>
+        <v>1.022775230172559</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053171658699875</v>
+        <v>0.9807862429825893</v>
       </c>
       <c r="D18">
-        <v>1.058501639983027</v>
+        <v>1.008644766536766</v>
       </c>
       <c r="E18">
-        <v>1.049599110156376</v>
+        <v>0.9872707277158118</v>
       </c>
       <c r="F18">
-        <v>1.066859330279041</v>
+        <v>1.01106129790067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046490944632909</v>
+        <v>1.042974804881603</v>
       </c>
       <c r="J18">
-        <v>1.059162800785321</v>
+        <v>1.008595303625811</v>
       </c>
       <c r="K18">
-        <v>1.061749997474784</v>
+        <v>1.022315930008985</v>
       </c>
       <c r="L18">
-        <v>1.052876943468189</v>
+        <v>1.001312863067816</v>
       </c>
       <c r="M18">
-        <v>1.070080506347617</v>
+        <v>1.024691791936599</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053307967872827</v>
+        <v>0.9816348561070184</v>
       </c>
       <c r="D19">
-        <v>1.058610300520121</v>
+        <v>1.009317995330928</v>
       </c>
       <c r="E19">
-        <v>1.049719075893094</v>
+        <v>0.9880066626524472</v>
       </c>
       <c r="F19">
-        <v>1.066978579213264</v>
+        <v>1.011785059350373</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046532414632706</v>
+        <v>1.043298480291032</v>
       </c>
       <c r="J19">
-        <v>1.059271858188926</v>
+        <v>1.009271288654213</v>
       </c>
       <c r="K19">
-        <v>1.061844342083202</v>
+        <v>1.022914112077256</v>
       </c>
       <c r="L19">
-        <v>1.052982414723737</v>
+        <v>1.001970004103373</v>
       </c>
       <c r="M19">
-        <v>1.070185535142713</v>
+        <v>1.025339952030967</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052698090953403</v>
+        <v>0.977811776616224</v>
       </c>
       <c r="D20">
-        <v>1.058124110250784</v>
+        <v>1.00628576631266</v>
       </c>
       <c r="E20">
-        <v>1.049182284487371</v>
+        <v>0.9846915445252351</v>
       </c>
       <c r="F20">
-        <v>1.066445050076733</v>
+        <v>1.008525541432605</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046346717491067</v>
+        <v>1.041839229415316</v>
       </c>
       <c r="J20">
-        <v>1.058783839404237</v>
+        <v>1.00622564884471</v>
       </c>
       <c r="K20">
-        <v>1.061422135730704</v>
+        <v>1.020218981308076</v>
       </c>
       <c r="L20">
-        <v>1.052510409090182</v>
+        <v>0.9990090238249446</v>
       </c>
       <c r="M20">
-        <v>1.069715563691799</v>
+        <v>1.022420117915982</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050710499720431</v>
+        <v>0.9648573033536683</v>
       </c>
       <c r="D21">
-        <v>1.056539279868396</v>
+        <v>0.9960257397496075</v>
       </c>
       <c r="E21">
-        <v>1.047432202484726</v>
+        <v>0.9734653871726261</v>
       </c>
       <c r="F21">
-        <v>1.064706574532444</v>
+        <v>0.9975020540110343</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045738871111203</v>
+        <v>1.03687611203554</v>
       </c>
       <c r="J21">
-        <v>1.057192116376704</v>
+        <v>0.9959015236951974</v>
       </c>
       <c r="K21">
-        <v>1.060044619366204</v>
+        <v>1.011082798927156</v>
       </c>
       <c r="L21">
-        <v>1.050970307676625</v>
+        <v>0.9889675284585229</v>
       </c>
       <c r="M21">
-        <v>1.0681830549741</v>
+        <v>1.012530905785745</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049457029924785</v>
+        <v>0.9562609346177561</v>
       </c>
       <c r="D22">
-        <v>1.055539561229509</v>
+        <v>0.9892308362635638</v>
       </c>
       <c r="E22">
-        <v>1.046328000218803</v>
+        <v>0.9660228414196483</v>
       </c>
       <c r="F22">
-        <v>1.063610445817474</v>
+        <v>0.9902059050361178</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045353497663065</v>
+        <v>1.03356931400328</v>
       </c>
       <c r="J22">
-        <v>1.056187329673079</v>
+        <v>0.9890485884179262</v>
       </c>
       <c r="K22">
-        <v>1.05917471186443</v>
+        <v>1.005018694312459</v>
       </c>
       <c r="L22">
-        <v>1.049997640403432</v>
+        <v>0.9822988396942121</v>
       </c>
       <c r="M22">
-        <v>1.06721592058968</v>
+        <v>1.005973914141366</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050121883685965</v>
+        <v>0.9608642898675835</v>
       </c>
       <c r="D23">
-        <v>1.056069845768154</v>
+        <v>0.9928681057588995</v>
       </c>
       <c r="E23">
-        <v>1.046913729730893</v>
+        <v>0.970007577263642</v>
       </c>
       <c r="F23">
-        <v>1.064191821222833</v>
+        <v>0.9941110791045117</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045558096534513</v>
+        <v>1.035341280785734</v>
       </c>
       <c r="J23">
-        <v>1.056720371004387</v>
+        <v>0.9927184474110248</v>
       </c>
       <c r="K23">
-        <v>1.05963623154626</v>
+        <v>1.008266061459145</v>
       </c>
       <c r="L23">
-        <v>1.050513686628481</v>
+        <v>0.9858703425468628</v>
       </c>
       <c r="M23">
-        <v>1.067728961232715</v>
+        <v>1.009484566468108</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052731350283308</v>
+        <v>0.9780220226675508</v>
       </c>
       <c r="D24">
-        <v>1.058150625669728</v>
+        <v>1.00645247132384</v>
       </c>
       <c r="E24">
-        <v>1.04921156068868</v>
+        <v>0.9848738329521687</v>
       </c>
       <c r="F24">
-        <v>1.066474144717927</v>
+        <v>1.008704721721213</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046356854408303</v>
+        <v>1.041919549181862</v>
       </c>
       <c r="J24">
-        <v>1.058810458041982</v>
+        <v>1.006393157526289</v>
       </c>
       <c r="K24">
-        <v>1.061445166366619</v>
+        <v>1.020367213997359</v>
       </c>
       <c r="L24">
-        <v>1.052536156582181</v>
+        <v>0.9991718922534251</v>
       </c>
       <c r="M24">
-        <v>1.069741196638187</v>
+        <v>1.022580677883224</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055743598831268</v>
+        <v>0.9962644360654582</v>
       </c>
       <c r="D25">
-        <v>1.060551455367222</v>
+        <v>1.020937625699263</v>
       </c>
       <c r="E25">
-        <v>1.051861818507638</v>
+        <v>1.000699584077176</v>
       </c>
       <c r="F25">
-        <v>1.069109726669906</v>
+        <v>1.024283495160333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047270063626385</v>
+        <v>1.048854790361144</v>
       </c>
       <c r="J25">
-        <v>1.061218940711613</v>
+        <v>1.020918174163425</v>
       </c>
       <c r="K25">
-        <v>1.063528176960803</v>
+        <v>1.033219379712746</v>
       </c>
       <c r="L25">
-        <v>1.054864711110115</v>
+        <v>1.013287049602707</v>
       </c>
       <c r="M25">
-        <v>1.072061125483577</v>
+        <v>1.036516183959028</v>
       </c>
     </row>
   </sheetData>
